--- a/xlsx/乙醇_intext.xlsx
+++ b/xlsx/乙醇_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="858">
   <si>
     <t>乙醇</t>
   </si>
@@ -29,7 +29,7 @@
     <t>IUPAC命名法</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_乙醇</t>
+    <t>政策_政策_混合动力车辆_乙醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CAS%E5%8F%B7</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A_(%E5%96%AE%E4%BD%8D)</t>
   </si>
   <si>
-    <t>泊 (單位)</t>
+    <t>泊 (单位)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B6%E6%A5%B5%E5%AD%90</t>
   </si>
   <si>
-    <t>偶極子</t>
+    <t>偶极子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%9C</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E7%A4%BA%E6%80%A7%E8%B3%AA%E6%A8%99%E6%BA%96%E8%A9%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>警示性質標準詞列表</t>
+    <t>警示性质标准词列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E5%BB%BA%E8%AD%B0%E6%A8%99%E6%BA%96%E8%A9%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>安全建議標準詞列表</t>
+    <t>安全建议标准词列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFPA_704</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E6%AF%92%E5%8A%91</t>
   </si>
   <si>
-    <t>消毒劑</t>
+    <t>消毒剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%9C%BA%E5%90%88%E6%88%90</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE%E7%99%BC%E9%85%B5</t>
   </si>
   <si>
-    <t>酒精發酵</t>
+    <t>酒精发酵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%8A%80%E6%9C%AF</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>新石器時代</t>
+    <t>新石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%85%B5</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E9%A4%BE</t>
   </si>
   <si>
-    <t>蒸餾</t>
+    <t>蒸馏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%9B%BC%C2%B7%E9%B2%81%E5%B0%94</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%B3%95%E6%8B%89%E7%AC%AC</t>
   </si>
   <si>
-    <t>麥可·法拉第</t>
+    <t>麦可·法拉第</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E9%85%B8</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%B2%E7%A8%85</t>
   </si>
   <si>
-    <t>課稅</t>
+    <t>课税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9T%E5%9E%8B%E8%BD%A6</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE%E7%87%88</t>
   </si>
   <si>
-    <t>酒精燈</t>
+    <t>酒精灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%80%97</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
   </si>
   <si>
-    <t>熱</t>
+    <t>热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%9F%E5%9F%BA</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A4%E6%BA%AB</t>
   </si>
   <si>
-    <t>室溫</t>
+    <t>室温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%98%E5%B0%84%E7%8E%87</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD</t>
   </si>
   <si>
-    <t>鹽</t>
+    <t>盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AF%E5%8C%96%E9%92%BE</t>
@@ -707,9 +707,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A5%E5%9F%BA</t>
   </si>
   <si>
-    <t>羥基</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E5%8C%96</t>
   </si>
   <si>
@@ -785,13 +782,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E9%85%B8%E9%88%89</t>
   </si>
   <si>
-    <t>硝酸鈉</t>
+    <t>硝酸钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%B0%BF%E5%8A%91</t>
   </si>
   <si>
-    <t>利尿劑</t>
+    <t>利尿剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%98%E5%8E%9F%E4%BD%9C%E7%94%A8</t>
@@ -857,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%8C%B3%E9%85%B8%E9%89%80</t>
   </si>
   <si>
-    <t>高錳酸鉀</t>
+    <t>高锰酸钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A4%E5%8C%96%E6%B0%A2</t>
@@ -929,13 +926,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%87%E9%B9%BD</t>
   </si>
   <si>
-    <t>醇鹽</t>
+    <t>醇盐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E6%B0%A3</t>
   </si>
   <si>
-    <t>氫氣</t>
+    <t>氢气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A2%E5%8C%96%E9%92%A0</t>
@@ -959,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%8F%B8%E9%85%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>臺灣菸酒公司</t>
+    <t>台湾菸酒公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%98%E9%85%8A</t>
@@ -995,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
+    <t>细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%87%E8%84%AB%E6%B0%AB%E9%85%B6</t>
   </si>
   <si>
-    <t>醇脫氫酶</t>
+    <t>醇脱氢酶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%9B</t>
@@ -1031,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%85%B8</t>
   </si>
   <si>
-    <t>小腸</t>
+    <t>小肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>代謝</t>
+    <t>代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%B2%BE</t>
@@ -1055,13 +1052,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E9%A0%AD%E4%B8%B8</t>
   </si>
   <si>
-    <t>搖頭丸</t>
+    <t>摇头丸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%9F%AF%E9%B9%BC</t>
   </si>
   <si>
-    <t>古柯鹼</t>
+    <t>古柯碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%9B%E5%9B%A0</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1%E7%B1%BB%E8%87%B4%E7%99%8C%E7%89%A9</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%99%AE%E4%BC%BD%E6%96%B0%E7%94%9F%E5%85%92%E8%A9%95%E5%88%86</t>
   </si>
   <si>
-    <t>阿普伽新生兒評分</t>
+    <t>阿普伽新生儿评分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%99%E4%BA%8C%E9%86%87</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E6%80%A7%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>變性乙醇</t>
+    <t>变性乙醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%9B%E7%B3%96</t>
@@ -1325,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%B7%B1%E9%86%87</t>
   </si>
   <si>
-    <t>環己醇</t>
+    <t>环己醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%94%E9%86%87</t>
@@ -1355,13 +1352,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
+    <t>生物化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%87%E9%A1%9E%E4%BC%BC%E7%89%A9</t>
   </si>
   <si>
-    <t>醇類似物</t>
+    <t>醇类似物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E4%B8%99%E9%86%87</t>
@@ -1481,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%99%E9%86%87</t>
   </si>
   <si>
-    <t>釙醇</t>
+    <t>钋醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%9A</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E9%AB%94_(%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8)</t>
   </si>
   <si>
-    <t>配體 (生物化學)</t>
+    <t>配体 (生物化学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E5%8A%A8%E5%89%82</t>
@@ -1745,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E6%94%9D%E5%8F%96%E6%8A%91%E5%88%B6%E5%8A%91</t>
   </si>
   <si>
-    <t>再攝取抑制劑</t>
+    <t>再摄取抑制剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%86%E8%83%9E%E8%86%9C</t>
@@ -1787,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%AF%E4%BA%8C%E6%B0%AE%E5%B9%B3%E9%A1%9E%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>苯二氮平類藥物</t>
+    <t>苯二氮平类药物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Synaptic_vesicle</t>
@@ -1811,7 +1808,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E8%9E%BA%E7%92%B0%E9%85%AE</t>
   </si>
   <si>
-    <t>丁螺環酮</t>
+    <t>丁螺环酮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%BA%A6%E8%9E%BA%E9%85%AE</t>
@@ -1883,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%88%E8%8D%89</t>
   </si>
   <si>
-    <t>纈草</t>
+    <t>缬草</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%B4%E5%96%B7%E4%B8%81</t>
@@ -1979,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E8%A9%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>臨床試驗</t>
+    <t>临床试验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -2015,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%89%E7%89%87%E9%A1%9E%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>鴉片類藥物</t>
+    <t>鸦片类药物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/7-Hydroxymitragynine</t>
@@ -2069,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%97%8E%E5%95%A1</t>
   </si>
   <si>
-    <t>嗎啡</t>
+    <t>吗啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B8%A6%E7%89%87</t>
@@ -2225,7 +2222,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AB%E5%99%B4%E5%A6%A5%E9%88%89</t>
   </si>
   <si>
-    <t>硫噴妥鈉</t>
+    <t>硫喷妥钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%AF%E4%BA%8C%E6%B0%AE%E4%93%AC%E7%B1%BB</t>
@@ -2255,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%AA%E9%81%94%E5%94%91%E4%BE%96</t>
   </si>
   <si>
-    <t>咪達唑侖</t>
+    <t>咪达唑仑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E7%94%B2%E8%A5%BF%E6%B3%AE</t>
@@ -2363,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%88%E8%8D%89%E9%85%B8</t>
   </si>
   <si>
-    <t>纈草酸</t>
+    <t>缬草酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1,4-%E4%B8%81%E4%BA%8C%E9%86%87</t>
@@ -2381,7 +2378,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%B5%84%E7%B9%94%E8%83%BA%E8%97%A5</t>
   </si>
   <si>
-    <t>抗組織胺藥</t>
+    <t>抗组织胺药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%AF%E6%B5%B7%E6%8B%89%E6%98%8E</t>
@@ -2399,7 +2396,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E9%85%B8%E7%95%B0%E4%B8%99%E5%97%AA</t>
   </si>
   <si>
-    <t>鹽酸異丙嗪</t>
+    <t>盐酸异丙嗪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B1%B3%E6%9B%BF%E6%9E%97</t>
@@ -2453,7 +2450,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%80%9D%E9%80%9A</t>
   </si>
   <si>
-    <t>維思通</t>
+    <t>维思通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%B9%90%E5%AE%9A</t>
@@ -2471,19 +2468,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%8C%E8%82%89%E9%AC%86%E5%BC%9B%E5%8A%91</t>
   </si>
   <si>
-    <t>肌肉鬆弛劑</t>
+    <t>肌肉松弛剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%95%AA%E8%93%AE%E5%B1%AC</t>
   </si>
   <si>
-    <t>西番蓮屬</t>
+    <t>西番莲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8E%A8%E8%8F%AA%E9%B9%BC</t>
   </si>
   <si>
-    <t>東莨菪鹼</t>
+    <t>东莨菪碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9</t>
@@ -2507,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E9%86%87%E7%87%83%E6%96%99</t>
@@ -2519,7 +2516,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%99%E5%9F%BA%E9%89%9B</t>
   </si>
   <si>
-    <t>四乙基鉛</t>
+    <t>四乙基铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E5%9F%BA%E6%A9%A1%E8%83%B6</t>
@@ -2531,7 +2528,7 @@
     <t>https://zh.wikipedia.org/wiki/2,6-%E4%BA%8C%E5%8F%94%E4%B8%81%E5%9F%BA%E5%B0%8D%E7%94%B2%E9%85%9A</t>
   </si>
   <si>
-    <t>2,6-二叔丁基對甲酚</t>
+    <t>2,6-二叔丁基对甲酚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1,2-%E4%BA%8C%E6%BA%B4%E4%B9%99%E7%83%B7</t>
@@ -2573,7 +2570,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -2591,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6384,7 +6381,7 @@
         <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6410,10 +6407,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>5</v>
@@ -6439,10 +6436,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6468,10 +6465,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>234</v>
+      </c>
+      <c r="F122" t="s">
         <v>235</v>
-      </c>
-      <c r="F122" t="s">
-        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6497,10 +6494,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
         <v>237</v>
-      </c>
-      <c r="F123" t="s">
-        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6526,10 +6523,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
         <v>239</v>
-      </c>
-      <c r="F124" t="s">
-        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>35</v>
@@ -6555,10 +6552,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6584,13 +6581,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
       </c>
-      <c r="F126" t="s">
-        <v>240</v>
-      </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -6613,10 +6610,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6642,10 +6639,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6671,10 +6668,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6700,10 +6697,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6729,10 +6726,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6758,10 +6755,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6816,10 +6813,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6845,10 +6842,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6874,10 +6871,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6903,10 +6900,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6932,10 +6929,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>7</v>
@@ -6961,10 +6958,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -6990,10 +6987,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>10</v>
@@ -7019,10 +7016,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7048,10 +7045,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7077,10 +7074,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
-      </c>
-      <c r="F143" t="s">
-        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7106,10 +7103,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>272</v>
+      </c>
+      <c r="F144" t="s">
         <v>273</v>
-      </c>
-      <c r="F144" t="s">
-        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7135,10 +7132,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>274</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -7164,10 +7161,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
         <v>277</v>
-      </c>
-      <c r="F146" t="s">
-        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7193,10 +7190,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
         <v>279</v>
-      </c>
-      <c r="F147" t="s">
-        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7222,10 +7219,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
         <v>281</v>
-      </c>
-      <c r="F148" t="s">
-        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7251,10 +7248,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s">
         <v>283</v>
-      </c>
-      <c r="F149" t="s">
-        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7280,10 +7277,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
-      </c>
-      <c r="F150" t="s">
-        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7309,10 +7306,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>286</v>
+      </c>
+      <c r="F151" t="s">
         <v>287</v>
-      </c>
-      <c r="F151" t="s">
-        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7338,10 +7335,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>288</v>
+      </c>
+      <c r="F152" t="s">
         <v>289</v>
-      </c>
-      <c r="F152" t="s">
-        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -7367,10 +7364,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" t="s">
         <v>291</v>
-      </c>
-      <c r="F153" t="s">
-        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7396,10 +7393,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" t="s">
         <v>293</v>
-      </c>
-      <c r="F154" t="s">
-        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7425,10 +7422,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>294</v>
+      </c>
+      <c r="F155" t="s">
         <v>295</v>
-      </c>
-      <c r="F155" t="s">
-        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7454,10 +7451,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>296</v>
+      </c>
+      <c r="F156" t="s">
         <v>297</v>
-      </c>
-      <c r="F156" t="s">
-        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7483,10 +7480,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>298</v>
+      </c>
+      <c r="F157" t="s">
         <v>299</v>
-      </c>
-      <c r="F157" t="s">
-        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7512,10 +7509,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>300</v>
+      </c>
+      <c r="F158" t="s">
         <v>301</v>
-      </c>
-      <c r="F158" t="s">
-        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7541,10 +7538,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>302</v>
+      </c>
+      <c r="F159" t="s">
         <v>303</v>
-      </c>
-      <c r="F159" t="s">
-        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7570,10 +7567,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>304</v>
+      </c>
+      <c r="F160" t="s">
         <v>305</v>
-      </c>
-      <c r="F160" t="s">
-        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7599,10 +7596,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>306</v>
+      </c>
+      <c r="F161" t="s">
         <v>307</v>
-      </c>
-      <c r="F161" t="s">
-        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7628,10 +7625,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>308</v>
+      </c>
+      <c r="F162" t="s">
         <v>309</v>
-      </c>
-      <c r="F162" t="s">
-        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7657,10 +7654,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>310</v>
+      </c>
+      <c r="F163" t="s">
         <v>311</v>
-      </c>
-      <c r="F163" t="s">
-        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7686,10 +7683,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" t="s">
         <v>313</v>
-      </c>
-      <c r="F164" t="s">
-        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7715,10 +7712,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -7744,10 +7741,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
         <v>317</v>
-      </c>
-      <c r="F166" t="s">
-        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7773,10 +7770,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
         <v>319</v>
-      </c>
-      <c r="F167" t="s">
-        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7802,10 +7799,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" t="s">
         <v>321</v>
-      </c>
-      <c r="F168" t="s">
-        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7831,10 +7828,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" t="s">
         <v>323</v>
-      </c>
-      <c r="F169" t="s">
-        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7860,10 +7857,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>324</v>
+      </c>
+      <c r="F170" t="s">
         <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>7</v>
@@ -7889,10 +7886,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>326</v>
+      </c>
+      <c r="F171" t="s">
         <v>327</v>
-      </c>
-      <c r="F171" t="s">
-        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7918,10 +7915,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>328</v>
+      </c>
+      <c r="F172" t="s">
         <v>329</v>
-      </c>
-      <c r="F172" t="s">
-        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7947,10 +7944,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>330</v>
+      </c>
+      <c r="F173" t="s">
         <v>331</v>
-      </c>
-      <c r="F173" t="s">
-        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7976,10 +7973,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>332</v>
+      </c>
+      <c r="F174" t="s">
         <v>333</v>
-      </c>
-      <c r="F174" t="s">
-        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -8005,10 +8002,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>334</v>
+      </c>
+      <c r="F175" t="s">
         <v>335</v>
-      </c>
-      <c r="F175" t="s">
-        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>7</v>
@@ -8034,10 +8031,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" t="s">
         <v>337</v>
-      </c>
-      <c r="F176" t="s">
-        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -8063,10 +8060,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>338</v>
+      </c>
+      <c r="F177" t="s">
         <v>339</v>
-      </c>
-      <c r="F177" t="s">
-        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -8092,10 +8089,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>340</v>
+      </c>
+      <c r="F178" t="s">
         <v>341</v>
-      </c>
-      <c r="F178" t="s">
-        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>55</v>
@@ -8121,10 +8118,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>342</v>
+      </c>
+      <c r="F179" t="s">
         <v>343</v>
-      </c>
-      <c r="F179" t="s">
-        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>6</v>
@@ -8150,10 +8147,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" t="s">
         <v>345</v>
-      </c>
-      <c r="F180" t="s">
-        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8179,10 +8176,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>346</v>
+      </c>
+      <c r="F181" t="s">
         <v>347</v>
-      </c>
-      <c r="F181" t="s">
-        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8208,10 +8205,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>348</v>
+      </c>
+      <c r="F182" t="s">
         <v>349</v>
-      </c>
-      <c r="F182" t="s">
-        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8237,10 +8234,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>350</v>
+      </c>
+      <c r="F183" t="s">
         <v>351</v>
-      </c>
-      <c r="F183" t="s">
-        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8266,10 +8263,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" t="s">
         <v>353</v>
-      </c>
-      <c r="F184" t="s">
-        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8295,10 +8292,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>354</v>
+      </c>
+      <c r="F185" t="s">
         <v>355</v>
-      </c>
-      <c r="F185" t="s">
-        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8324,10 +8321,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>356</v>
+      </c>
+      <c r="F186" t="s">
         <v>357</v>
-      </c>
-      <c r="F186" t="s">
-        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8353,10 +8350,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>358</v>
+      </c>
+      <c r="F187" t="s">
         <v>359</v>
-      </c>
-      <c r="F187" t="s">
-        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>10</v>
@@ -8382,10 +8379,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>360</v>
+      </c>
+      <c r="F188" t="s">
         <v>361</v>
-      </c>
-      <c r="F188" t="s">
-        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8411,10 +8408,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" t="s">
         <v>363</v>
-      </c>
-      <c r="F189" t="s">
-        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8440,10 +8437,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>364</v>
+      </c>
+      <c r="F190" t="s">
         <v>365</v>
-      </c>
-      <c r="F190" t="s">
-        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8469,10 +8466,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" t="s">
         <v>367</v>
-      </c>
-      <c r="F191" t="s">
-        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8498,10 +8495,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>368</v>
+      </c>
+      <c r="F192" t="s">
         <v>369</v>
-      </c>
-      <c r="F192" t="s">
-        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8527,10 +8524,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>370</v>
+      </c>
+      <c r="F193" t="s">
         <v>371</v>
-      </c>
-      <c r="F193" t="s">
-        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8556,10 +8553,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>372</v>
+      </c>
+      <c r="F194" t="s">
         <v>373</v>
-      </c>
-      <c r="F194" t="s">
-        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8585,10 +8582,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>374</v>
+      </c>
+      <c r="F195" t="s">
         <v>375</v>
-      </c>
-      <c r="F195" t="s">
-        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>10</v>
@@ -8614,10 +8611,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" t="s">
         <v>377</v>
-      </c>
-      <c r="F196" t="s">
-        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8643,10 +8640,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>378</v>
+      </c>
+      <c r="F197" t="s">
         <v>379</v>
-      </c>
-      <c r="F197" t="s">
-        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -8672,10 +8669,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>380</v>
+      </c>
+      <c r="F198" t="s">
         <v>381</v>
-      </c>
-      <c r="F198" t="s">
-        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8701,10 +8698,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>382</v>
+      </c>
+      <c r="F199" t="s">
         <v>383</v>
-      </c>
-      <c r="F199" t="s">
-        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8730,10 +8727,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>384</v>
+      </c>
+      <c r="F200" t="s">
         <v>385</v>
-      </c>
-      <c r="F200" t="s">
-        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8759,10 +8756,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>386</v>
+      </c>
+      <c r="F201" t="s">
         <v>387</v>
-      </c>
-      <c r="F201" t="s">
-        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8788,10 +8785,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>388</v>
+      </c>
+      <c r="F202" t="s">
         <v>389</v>
-      </c>
-      <c r="F202" t="s">
-        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8817,10 +8814,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
         <v>391</v>
-      </c>
-      <c r="F203" t="s">
-        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8846,10 +8843,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" t="s">
         <v>393</v>
-      </c>
-      <c r="F204" t="s">
-        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8875,10 +8872,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205" t="s">
         <v>395</v>
-      </c>
-      <c r="F205" t="s">
-        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8904,10 +8901,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>396</v>
+      </c>
+      <c r="F206" t="s">
         <v>397</v>
-      </c>
-      <c r="F206" t="s">
-        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8933,10 +8930,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>398</v>
+      </c>
+      <c r="F207" t="s">
         <v>399</v>
-      </c>
-      <c r="F207" t="s">
-        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8962,10 +8959,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>400</v>
+      </c>
+      <c r="F208" t="s">
         <v>401</v>
-      </c>
-      <c r="F208" t="s">
-        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8991,10 +8988,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>402</v>
+      </c>
+      <c r="F209" t="s">
         <v>403</v>
-      </c>
-      <c r="F209" t="s">
-        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9020,10 +9017,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>404</v>
+      </c>
+      <c r="F210" t="s">
         <v>405</v>
-      </c>
-      <c r="F210" t="s">
-        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9049,10 +9046,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>406</v>
+      </c>
+      <c r="F211" t="s">
         <v>407</v>
-      </c>
-      <c r="F211" t="s">
-        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9078,10 +9075,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>408</v>
+      </c>
+      <c r="F212" t="s">
         <v>409</v>
-      </c>
-      <c r="F212" t="s">
-        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9107,10 +9104,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>410</v>
+      </c>
+      <c r="F213" t="s">
         <v>411</v>
-      </c>
-      <c r="F213" t="s">
-        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9136,10 +9133,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>412</v>
+      </c>
+      <c r="F214" t="s">
         <v>413</v>
-      </c>
-      <c r="F214" t="s">
-        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9165,10 +9162,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>414</v>
+      </c>
+      <c r="F215" t="s">
         <v>415</v>
-      </c>
-      <c r="F215" t="s">
-        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9194,10 +9191,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>416</v>
+      </c>
+      <c r="F216" t="s">
         <v>417</v>
-      </c>
-      <c r="F216" t="s">
-        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9223,10 +9220,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
         <v>419</v>
-      </c>
-      <c r="F217" t="s">
-        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -9252,10 +9249,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>420</v>
+      </c>
+      <c r="F218" t="s">
         <v>421</v>
-      </c>
-      <c r="F218" t="s">
-        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9281,10 +9278,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>422</v>
+      </c>
+      <c r="F219" t="s">
         <v>423</v>
-      </c>
-      <c r="F219" t="s">
-        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -9310,10 +9307,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>424</v>
+      </c>
+      <c r="F220" t="s">
         <v>425</v>
-      </c>
-      <c r="F220" t="s">
-        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9339,10 +9336,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>426</v>
+      </c>
+      <c r="F221" t="s">
         <v>427</v>
-      </c>
-      <c r="F221" t="s">
-        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9368,10 +9365,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>428</v>
+      </c>
+      <c r="F222" t="s">
         <v>429</v>
-      </c>
-      <c r="F222" t="s">
-        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9397,10 +9394,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>430</v>
+      </c>
+      <c r="F223" t="s">
         <v>431</v>
-      </c>
-      <c r="F223" t="s">
-        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9426,10 +9423,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>432</v>
+      </c>
+      <c r="F224" t="s">
         <v>433</v>
-      </c>
-      <c r="F224" t="s">
-        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9455,10 +9452,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>434</v>
+      </c>
+      <c r="F225" t="s">
         <v>435</v>
-      </c>
-      <c r="F225" t="s">
-        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9484,10 +9481,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>436</v>
+      </c>
+      <c r="F226" t="s">
         <v>437</v>
-      </c>
-      <c r="F226" t="s">
-        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9513,10 +9510,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>438</v>
+      </c>
+      <c r="F227" t="s">
         <v>439</v>
-      </c>
-      <c r="F227" t="s">
-        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9542,10 +9539,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>440</v>
+      </c>
+      <c r="F228" t="s">
         <v>441</v>
-      </c>
-      <c r="F228" t="s">
-        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9571,10 +9568,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>442</v>
+      </c>
+      <c r="F229" t="s">
         <v>443</v>
-      </c>
-      <c r="F229" t="s">
-        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9600,10 +9597,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>444</v>
+      </c>
+      <c r="F230" t="s">
         <v>445</v>
-      </c>
-      <c r="F230" t="s">
-        <v>446</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9629,10 +9626,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>446</v>
+      </c>
+      <c r="F231" t="s">
         <v>447</v>
-      </c>
-      <c r="F231" t="s">
-        <v>448</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9658,10 +9655,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>448</v>
+      </c>
+      <c r="F232" t="s">
         <v>449</v>
-      </c>
-      <c r="F232" t="s">
-        <v>450</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9687,10 +9684,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>450</v>
+      </c>
+      <c r="F233" t="s">
         <v>451</v>
-      </c>
-      <c r="F233" t="s">
-        <v>452</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9716,10 +9713,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>452</v>
+      </c>
+      <c r="F234" t="s">
         <v>453</v>
-      </c>
-      <c r="F234" t="s">
-        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9745,10 +9742,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>454</v>
+      </c>
+      <c r="F235" t="s">
         <v>455</v>
-      </c>
-      <c r="F235" t="s">
-        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>7</v>
@@ -9774,10 +9771,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>456</v>
+      </c>
+      <c r="F236" t="s">
         <v>457</v>
-      </c>
-      <c r="F236" t="s">
-        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9803,10 +9800,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>458</v>
+      </c>
+      <c r="F237" t="s">
         <v>459</v>
-      </c>
-      <c r="F237" t="s">
-        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9832,10 +9829,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>460</v>
+      </c>
+      <c r="F238" t="s">
         <v>461</v>
-      </c>
-      <c r="F238" t="s">
-        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9861,10 +9858,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>462</v>
+      </c>
+      <c r="F239" t="s">
         <v>463</v>
-      </c>
-      <c r="F239" t="s">
-        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9890,10 +9887,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>464</v>
+      </c>
+      <c r="F240" t="s">
         <v>465</v>
-      </c>
-      <c r="F240" t="s">
-        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9919,10 +9916,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>466</v>
+      </c>
+      <c r="F241" t="s">
         <v>467</v>
-      </c>
-      <c r="F241" t="s">
-        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9948,10 +9945,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>468</v>
+      </c>
+      <c r="F242" t="s">
         <v>469</v>
-      </c>
-      <c r="F242" t="s">
-        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>6</v>
@@ -9977,10 +9974,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>470</v>
+      </c>
+      <c r="F243" t="s">
         <v>471</v>
-      </c>
-      <c r="F243" t="s">
-        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10006,10 +10003,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>472</v>
+      </c>
+      <c r="F244" t="s">
         <v>473</v>
-      </c>
-      <c r="F244" t="s">
-        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10035,10 +10032,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>474</v>
+      </c>
+      <c r="F245" t="s">
         <v>475</v>
-      </c>
-      <c r="F245" t="s">
-        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10064,10 +10061,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>476</v>
+      </c>
+      <c r="F246" t="s">
         <v>477</v>
-      </c>
-      <c r="F246" t="s">
-        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10093,10 +10090,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>478</v>
+      </c>
+      <c r="F247" t="s">
         <v>479</v>
-      </c>
-      <c r="F247" t="s">
-        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10122,10 +10119,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>480</v>
+      </c>
+      <c r="F248" t="s">
         <v>481</v>
-      </c>
-      <c r="F248" t="s">
-        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>5</v>
@@ -10151,10 +10148,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>482</v>
+      </c>
+      <c r="F249" t="s">
         <v>483</v>
-      </c>
-      <c r="F249" t="s">
-        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10180,10 +10177,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>484</v>
+      </c>
+      <c r="F250" t="s">
         <v>485</v>
-      </c>
-      <c r="F250" t="s">
-        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10209,10 +10206,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>486</v>
+      </c>
+      <c r="F251" t="s">
         <v>487</v>
-      </c>
-      <c r="F251" t="s">
-        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10238,10 +10235,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>488</v>
+      </c>
+      <c r="F252" t="s">
         <v>489</v>
-      </c>
-      <c r="F252" t="s">
-        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>12</v>
@@ -10267,10 +10264,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>490</v>
+      </c>
+      <c r="F253" t="s">
         <v>491</v>
-      </c>
-      <c r="F253" t="s">
-        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>8</v>
@@ -10296,10 +10293,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>492</v>
+      </c>
+      <c r="F254" t="s">
         <v>493</v>
-      </c>
-      <c r="F254" t="s">
-        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10325,10 +10322,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>494</v>
+      </c>
+      <c r="F255" t="s">
         <v>495</v>
-      </c>
-      <c r="F255" t="s">
-        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10354,10 +10351,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>496</v>
+      </c>
+      <c r="F256" t="s">
         <v>497</v>
-      </c>
-      <c r="F256" t="s">
-        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10383,10 +10380,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>498</v>
+      </c>
+      <c r="F257" t="s">
         <v>499</v>
-      </c>
-      <c r="F257" t="s">
-        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10412,10 +10409,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>500</v>
+      </c>
+      <c r="F258" t="s">
         <v>501</v>
-      </c>
-      <c r="F258" t="s">
-        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10441,10 +10438,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>502</v>
+      </c>
+      <c r="F259" t="s">
         <v>503</v>
-      </c>
-      <c r="F259" t="s">
-        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10470,10 +10467,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>504</v>
+      </c>
+      <c r="F260" t="s">
         <v>505</v>
-      </c>
-      <c r="F260" t="s">
-        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10499,10 +10496,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>506</v>
+      </c>
+      <c r="F261" t="s">
         <v>507</v>
-      </c>
-      <c r="F261" t="s">
-        <v>508</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10528,10 +10525,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>508</v>
+      </c>
+      <c r="F262" t="s">
         <v>509</v>
-      </c>
-      <c r="F262" t="s">
-        <v>510</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10557,10 +10554,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>510</v>
+      </c>
+      <c r="F263" t="s">
         <v>511</v>
-      </c>
-      <c r="F263" t="s">
-        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10586,10 +10583,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>512</v>
+      </c>
+      <c r="F264" t="s">
         <v>513</v>
-      </c>
-      <c r="F264" t="s">
-        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10615,10 +10612,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>514</v>
+      </c>
+      <c r="F265" t="s">
         <v>515</v>
-      </c>
-      <c r="F265" t="s">
-        <v>516</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10644,10 +10641,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>516</v>
+      </c>
+      <c r="F266" t="s">
         <v>517</v>
-      </c>
-      <c r="F266" t="s">
-        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10673,10 +10670,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>518</v>
+      </c>
+      <c r="F267" t="s">
         <v>519</v>
-      </c>
-      <c r="F267" t="s">
-        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10702,10 +10699,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>520</v>
+      </c>
+      <c r="F268" t="s">
         <v>521</v>
-      </c>
-      <c r="F268" t="s">
-        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10731,10 +10728,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>522</v>
+      </c>
+      <c r="F269" t="s">
         <v>523</v>
-      </c>
-      <c r="F269" t="s">
-        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10760,10 +10757,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>524</v>
+      </c>
+      <c r="F270" t="s">
         <v>525</v>
-      </c>
-      <c r="F270" t="s">
-        <v>526</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10789,10 +10786,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>526</v>
+      </c>
+      <c r="F271" t="s">
         <v>527</v>
-      </c>
-      <c r="F271" t="s">
-        <v>528</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10818,10 +10815,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>528</v>
+      </c>
+      <c r="F272" t="s">
         <v>529</v>
-      </c>
-      <c r="F272" t="s">
-        <v>530</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10847,10 +10844,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>530</v>
+      </c>
+      <c r="F273" t="s">
         <v>531</v>
-      </c>
-      <c r="F273" t="s">
-        <v>532</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10876,10 +10873,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>532</v>
+      </c>
+      <c r="F274" t="s">
         <v>533</v>
-      </c>
-      <c r="F274" t="s">
-        <v>534</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10905,10 +10902,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>534</v>
+      </c>
+      <c r="F275" t="s">
         <v>535</v>
-      </c>
-      <c r="F275" t="s">
-        <v>536</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10934,10 +10931,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>536</v>
+      </c>
+      <c r="F276" t="s">
         <v>537</v>
-      </c>
-      <c r="F276" t="s">
-        <v>538</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -10963,10 +10960,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>538</v>
+      </c>
+      <c r="F277" t="s">
         <v>539</v>
-      </c>
-      <c r="F277" t="s">
-        <v>540</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10992,10 +10989,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>540</v>
+      </c>
+      <c r="F278" t="s">
         <v>541</v>
-      </c>
-      <c r="F278" t="s">
-        <v>542</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11021,10 +11018,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>542</v>
+      </c>
+      <c r="F279" t="s">
         <v>543</v>
-      </c>
-      <c r="F279" t="s">
-        <v>544</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11050,10 +11047,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>544</v>
+      </c>
+      <c r="F280" t="s">
         <v>545</v>
-      </c>
-      <c r="F280" t="s">
-        <v>546</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11079,10 +11076,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>546</v>
+      </c>
+      <c r="F281" t="s">
         <v>547</v>
-      </c>
-      <c r="F281" t="s">
-        <v>548</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11108,10 +11105,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>548</v>
+      </c>
+      <c r="F282" t="s">
         <v>549</v>
-      </c>
-      <c r="F282" t="s">
-        <v>550</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11137,10 +11134,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>550</v>
+      </c>
+      <c r="F283" t="s">
         <v>551</v>
-      </c>
-      <c r="F283" t="s">
-        <v>552</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11166,10 +11163,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>552</v>
+      </c>
+      <c r="F284" t="s">
         <v>553</v>
-      </c>
-      <c r="F284" t="s">
-        <v>554</v>
       </c>
       <c r="G284" t="n">
         <v>4</v>
@@ -11195,10 +11192,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>554</v>
+      </c>
+      <c r="F285" t="s">
         <v>555</v>
-      </c>
-      <c r="F285" t="s">
-        <v>556</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11224,10 +11221,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>556</v>
+      </c>
+      <c r="F286" t="s">
         <v>557</v>
-      </c>
-      <c r="F286" t="s">
-        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -11253,10 +11250,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>558</v>
+      </c>
+      <c r="F287" t="s">
         <v>559</v>
-      </c>
-      <c r="F287" t="s">
-        <v>560</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11282,10 +11279,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>560</v>
+      </c>
+      <c r="F288" t="s">
         <v>561</v>
-      </c>
-      <c r="F288" t="s">
-        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11311,10 +11308,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>562</v>
+      </c>
+      <c r="F289" t="s">
         <v>563</v>
-      </c>
-      <c r="F289" t="s">
-        <v>564</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11340,10 +11337,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>564</v>
+      </c>
+      <c r="F290" t="s">
         <v>565</v>
-      </c>
-      <c r="F290" t="s">
-        <v>566</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11369,10 +11366,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>566</v>
+      </c>
+      <c r="F291" t="s">
         <v>567</v>
-      </c>
-      <c r="F291" t="s">
-        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11398,10 +11395,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>568</v>
+      </c>
+      <c r="F292" t="s">
         <v>569</v>
-      </c>
-      <c r="F292" t="s">
-        <v>570</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11427,10 +11424,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>570</v>
+      </c>
+      <c r="F293" t="s">
         <v>571</v>
-      </c>
-      <c r="F293" t="s">
-        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11456,10 +11453,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>572</v>
+      </c>
+      <c r="F294" t="s">
         <v>573</v>
-      </c>
-      <c r="F294" t="s">
-        <v>574</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11485,10 +11482,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>574</v>
+      </c>
+      <c r="F295" t="s">
         <v>575</v>
-      </c>
-      <c r="F295" t="s">
-        <v>576</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11514,10 +11511,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>576</v>
+      </c>
+      <c r="F296" t="s">
         <v>577</v>
-      </c>
-      <c r="F296" t="s">
-        <v>578</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11543,10 +11540,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>578</v>
+      </c>
+      <c r="F297" t="s">
         <v>579</v>
-      </c>
-      <c r="F297" t="s">
-        <v>580</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11572,10 +11569,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>580</v>
+      </c>
+      <c r="F298" t="s">
         <v>581</v>
-      </c>
-      <c r="F298" t="s">
-        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11601,10 +11598,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>582</v>
+      </c>
+      <c r="F299" t="s">
         <v>583</v>
-      </c>
-      <c r="F299" t="s">
-        <v>584</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11630,10 +11627,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>584</v>
+      </c>
+      <c r="F300" t="s">
         <v>585</v>
-      </c>
-      <c r="F300" t="s">
-        <v>586</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11659,10 +11656,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>586</v>
+      </c>
+      <c r="F301" t="s">
         <v>587</v>
-      </c>
-      <c r="F301" t="s">
-        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -11688,10 +11685,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>588</v>
+      </c>
+      <c r="F302" t="s">
         <v>589</v>
-      </c>
-      <c r="F302" t="s">
-        <v>590</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11717,10 +11714,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>590</v>
+      </c>
+      <c r="F303" t="s">
         <v>591</v>
-      </c>
-      <c r="F303" t="s">
-        <v>592</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11746,10 +11743,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>592</v>
+      </c>
+      <c r="F304" t="s">
         <v>593</v>
-      </c>
-      <c r="F304" t="s">
-        <v>594</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11775,10 +11772,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>594</v>
+      </c>
+      <c r="F305" t="s">
         <v>595</v>
-      </c>
-      <c r="F305" t="s">
-        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11804,10 +11801,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>596</v>
+      </c>
+      <c r="F306" t="s">
         <v>597</v>
-      </c>
-      <c r="F306" t="s">
-        <v>598</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11833,10 +11830,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>598</v>
+      </c>
+      <c r="F307" t="s">
         <v>599</v>
-      </c>
-      <c r="F307" t="s">
-        <v>600</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11862,13 +11859,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>600</v>
+      </c>
+      <c r="F308" t="s">
         <v>601</v>
       </c>
-      <c r="F308" t="s">
-        <v>602</v>
-      </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11891,10 +11888,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>602</v>
+      </c>
+      <c r="F309" t="s">
         <v>603</v>
-      </c>
-      <c r="F309" t="s">
-        <v>604</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11920,10 +11917,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>604</v>
+      </c>
+      <c r="F310" t="s">
         <v>605</v>
-      </c>
-      <c r="F310" t="s">
-        <v>606</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11949,10 +11946,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>606</v>
+      </c>
+      <c r="F311" t="s">
         <v>607</v>
-      </c>
-      <c r="F311" t="s">
-        <v>608</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11978,10 +11975,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>608</v>
+      </c>
+      <c r="F312" t="s">
         <v>609</v>
-      </c>
-      <c r="F312" t="s">
-        <v>610</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12007,10 +12004,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>610</v>
+      </c>
+      <c r="F313" t="s">
         <v>611</v>
-      </c>
-      <c r="F313" t="s">
-        <v>612</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12036,10 +12033,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>612</v>
+      </c>
+      <c r="F314" t="s">
         <v>613</v>
-      </c>
-      <c r="F314" t="s">
-        <v>614</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12065,10 +12062,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>614</v>
+      </c>
+      <c r="F315" t="s">
         <v>615</v>
-      </c>
-      <c r="F315" t="s">
-        <v>616</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12094,10 +12091,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>616</v>
+      </c>
+      <c r="F316" t="s">
         <v>617</v>
-      </c>
-      <c r="F316" t="s">
-        <v>618</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12123,10 +12120,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>618</v>
+      </c>
+      <c r="F317" t="s">
         <v>619</v>
-      </c>
-      <c r="F317" t="s">
-        <v>620</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12152,10 +12149,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>620</v>
+      </c>
+      <c r="F318" t="s">
         <v>621</v>
-      </c>
-      <c r="F318" t="s">
-        <v>622</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12181,10 +12178,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>622</v>
+      </c>
+      <c r="F319" t="s">
         <v>623</v>
-      </c>
-      <c r="F319" t="s">
-        <v>624</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12210,10 +12207,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>624</v>
+      </c>
+      <c r="F320" t="s">
         <v>625</v>
-      </c>
-      <c r="F320" t="s">
-        <v>626</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12239,10 +12236,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>626</v>
+      </c>
+      <c r="F321" t="s">
         <v>627</v>
-      </c>
-      <c r="F321" t="s">
-        <v>628</v>
       </c>
       <c r="G321" t="n">
         <v>7</v>
@@ -12268,10 +12265,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>628</v>
+      </c>
+      <c r="F322" t="s">
         <v>629</v>
-      </c>
-      <c r="F322" t="s">
-        <v>630</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12297,10 +12294,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>630</v>
+      </c>
+      <c r="F323" t="s">
         <v>631</v>
-      </c>
-      <c r="F323" t="s">
-        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12326,10 +12323,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>632</v>
+      </c>
+      <c r="F324" t="s">
         <v>633</v>
-      </c>
-      <c r="F324" t="s">
-        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12355,10 +12352,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>634</v>
+      </c>
+      <c r="F325" t="s">
         <v>635</v>
-      </c>
-      <c r="F325" t="s">
-        <v>636</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12384,10 +12381,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>636</v>
+      </c>
+      <c r="F326" t="s">
         <v>637</v>
-      </c>
-      <c r="F326" t="s">
-        <v>638</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12413,10 +12410,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>638</v>
+      </c>
+      <c r="F327" t="s">
         <v>639</v>
-      </c>
-      <c r="F327" t="s">
-        <v>640</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12442,10 +12439,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>640</v>
+      </c>
+      <c r="F328" t="s">
         <v>641</v>
-      </c>
-      <c r="F328" t="s">
-        <v>642</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12471,10 +12468,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>642</v>
+      </c>
+      <c r="F329" t="s">
         <v>643</v>
-      </c>
-      <c r="F329" t="s">
-        <v>644</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12500,10 +12497,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>644</v>
+      </c>
+      <c r="F330" t="s">
         <v>645</v>
-      </c>
-      <c r="F330" t="s">
-        <v>646</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12529,10 +12526,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>646</v>
+      </c>
+      <c r="F331" t="s">
         <v>647</v>
-      </c>
-      <c r="F331" t="s">
-        <v>648</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12558,10 +12555,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>648</v>
+      </c>
+      <c r="F332" t="s">
         <v>649</v>
-      </c>
-      <c r="F332" t="s">
-        <v>650</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12587,10 +12584,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>650</v>
+      </c>
+      <c r="F333" t="s">
         <v>651</v>
-      </c>
-      <c r="F333" t="s">
-        <v>652</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12616,10 +12613,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>652</v>
+      </c>
+      <c r="F334" t="s">
         <v>653</v>
-      </c>
-      <c r="F334" t="s">
-        <v>654</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12645,10 +12642,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>652</v>
+      </c>
+      <c r="F335" t="s">
         <v>653</v>
-      </c>
-      <c r="F335" t="s">
-        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12674,10 +12671,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>652</v>
+      </c>
+      <c r="F336" t="s">
         <v>653</v>
-      </c>
-      <c r="F336" t="s">
-        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12703,10 +12700,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>654</v>
+      </c>
+      <c r="F337" t="s">
         <v>655</v>
-      </c>
-      <c r="F337" t="s">
-        <v>656</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12732,10 +12729,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>656</v>
+      </c>
+      <c r="F338" t="s">
         <v>657</v>
-      </c>
-      <c r="F338" t="s">
-        <v>658</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12761,10 +12758,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>658</v>
+      </c>
+      <c r="F339" t="s">
         <v>659</v>
-      </c>
-      <c r="F339" t="s">
-        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12790,10 +12787,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>660</v>
+      </c>
+      <c r="F340" t="s">
         <v>661</v>
-      </c>
-      <c r="F340" t="s">
-        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12819,10 +12816,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>662</v>
+      </c>
+      <c r="F341" t="s">
         <v>663</v>
-      </c>
-      <c r="F341" t="s">
-        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12848,10 +12845,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>664</v>
+      </c>
+      <c r="F342" t="s">
         <v>665</v>
-      </c>
-      <c r="F342" t="s">
-        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12877,10 +12874,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>666</v>
+      </c>
+      <c r="F343" t="s">
         <v>667</v>
-      </c>
-      <c r="F343" t="s">
-        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12906,10 +12903,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>668</v>
+      </c>
+      <c r="F344" t="s">
         <v>669</v>
-      </c>
-      <c r="F344" t="s">
-        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12935,10 +12932,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>670</v>
+      </c>
+      <c r="F345" t="s">
         <v>671</v>
-      </c>
-      <c r="F345" t="s">
-        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12964,10 +12961,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>672</v>
+      </c>
+      <c r="F346" t="s">
         <v>673</v>
-      </c>
-      <c r="F346" t="s">
-        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12993,10 +12990,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>674</v>
+      </c>
+      <c r="F347" t="s">
         <v>675</v>
-      </c>
-      <c r="F347" t="s">
-        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13022,10 +13019,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>348</v>
+      </c>
+      <c r="F348" t="s">
         <v>349</v>
-      </c>
-      <c r="F348" t="s">
-        <v>350</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13051,10 +13048,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>676</v>
+      </c>
+      <c r="F349" t="s">
         <v>677</v>
-      </c>
-      <c r="F349" t="s">
-        <v>678</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13080,10 +13077,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>678</v>
+      </c>
+      <c r="F350" t="s">
         <v>679</v>
-      </c>
-      <c r="F350" t="s">
-        <v>680</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13109,10 +13106,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>680</v>
+      </c>
+      <c r="F351" t="s">
         <v>681</v>
-      </c>
-      <c r="F351" t="s">
-        <v>682</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13138,10 +13135,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>682</v>
+      </c>
+      <c r="F352" t="s">
         <v>683</v>
-      </c>
-      <c r="F352" t="s">
-        <v>684</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13167,10 +13164,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>684</v>
+      </c>
+      <c r="F353" t="s">
         <v>685</v>
-      </c>
-      <c r="F353" t="s">
-        <v>686</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13196,10 +13193,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>686</v>
+      </c>
+      <c r="F354" t="s">
         <v>687</v>
-      </c>
-      <c r="F354" t="s">
-        <v>688</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13225,10 +13222,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>688</v>
+      </c>
+      <c r="F355" t="s">
         <v>689</v>
-      </c>
-      <c r="F355" t="s">
-        <v>690</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13254,10 +13251,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>690</v>
+      </c>
+      <c r="F356" t="s">
         <v>691</v>
-      </c>
-      <c r="F356" t="s">
-        <v>692</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13283,10 +13280,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>692</v>
+      </c>
+      <c r="F357" t="s">
         <v>693</v>
-      </c>
-      <c r="F357" t="s">
-        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13312,10 +13309,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>694</v>
+      </c>
+      <c r="F358" t="s">
         <v>695</v>
-      </c>
-      <c r="F358" t="s">
-        <v>696</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13341,10 +13338,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>696</v>
+      </c>
+      <c r="F359" t="s">
         <v>697</v>
-      </c>
-      <c r="F359" t="s">
-        <v>698</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13370,10 +13367,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>698</v>
+      </c>
+      <c r="F360" t="s">
         <v>699</v>
-      </c>
-      <c r="F360" t="s">
-        <v>700</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13399,10 +13396,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>700</v>
+      </c>
+      <c r="F361" t="s">
         <v>701</v>
-      </c>
-      <c r="F361" t="s">
-        <v>702</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13428,10 +13425,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>702</v>
+      </c>
+      <c r="F362" t="s">
         <v>703</v>
-      </c>
-      <c r="F362" t="s">
-        <v>704</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13457,10 +13454,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>704</v>
+      </c>
+      <c r="F363" t="s">
         <v>705</v>
-      </c>
-      <c r="F363" t="s">
-        <v>706</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13486,10 +13483,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>706</v>
+      </c>
+      <c r="F364" t="s">
         <v>707</v>
-      </c>
-      <c r="F364" t="s">
-        <v>708</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13515,10 +13512,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>708</v>
+      </c>
+      <c r="F365" t="s">
         <v>709</v>
-      </c>
-      <c r="F365" t="s">
-        <v>710</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13544,10 +13541,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>710</v>
+      </c>
+      <c r="F366" t="s">
         <v>711</v>
-      </c>
-      <c r="F366" t="s">
-        <v>712</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13573,10 +13570,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>712</v>
+      </c>
+      <c r="F367" t="s">
         <v>713</v>
-      </c>
-      <c r="F367" t="s">
-        <v>714</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13602,10 +13599,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>714</v>
+      </c>
+      <c r="F368" t="s">
         <v>715</v>
-      </c>
-      <c r="F368" t="s">
-        <v>716</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13631,10 +13628,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>716</v>
+      </c>
+      <c r="F369" t="s">
         <v>717</v>
-      </c>
-      <c r="F369" t="s">
-        <v>718</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13660,10 +13657,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>718</v>
+      </c>
+      <c r="F370" t="s">
         <v>719</v>
-      </c>
-      <c r="F370" t="s">
-        <v>720</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13689,10 +13686,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>594</v>
+      </c>
+      <c r="F371" t="s">
         <v>595</v>
-      </c>
-      <c r="F371" t="s">
-        <v>596</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13718,10 +13715,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>600</v>
+      </c>
+      <c r="F372" t="s">
         <v>601</v>
-      </c>
-      <c r="F372" t="s">
-        <v>602</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13747,10 +13744,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>720</v>
+      </c>
+      <c r="F373" t="s">
         <v>721</v>
-      </c>
-      <c r="F373" t="s">
-        <v>722</v>
       </c>
       <c r="G373" t="n">
         <v>167</v>
@@ -13776,10 +13773,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>722</v>
+      </c>
+      <c r="F374" t="s">
         <v>723</v>
-      </c>
-      <c r="F374" t="s">
-        <v>724</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13805,10 +13802,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>724</v>
+      </c>
+      <c r="F375" t="s">
         <v>725</v>
-      </c>
-      <c r="F375" t="s">
-        <v>726</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13834,10 +13831,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>726</v>
+      </c>
+      <c r="F376" t="s">
         <v>727</v>
-      </c>
-      <c r="F376" t="s">
-        <v>728</v>
       </c>
       <c r="G376" t="n">
         <v>19</v>
@@ -13863,10 +13860,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>728</v>
+      </c>
+      <c r="F377" t="s">
         <v>729</v>
-      </c>
-      <c r="F377" t="s">
-        <v>730</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13892,10 +13889,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>730</v>
+      </c>
+      <c r="F378" t="s">
         <v>731</v>
-      </c>
-      <c r="F378" t="s">
-        <v>732</v>
       </c>
       <c r="G378" t="n">
         <v>4</v>
@@ -13921,10 +13918,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>732</v>
+      </c>
+      <c r="F379" t="s">
         <v>733</v>
-      </c>
-      <c r="F379" t="s">
-        <v>734</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -13950,10 +13947,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>734</v>
+      </c>
+      <c r="F380" t="s">
         <v>735</v>
-      </c>
-      <c r="F380" t="s">
-        <v>736</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13979,10 +13976,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>736</v>
+      </c>
+      <c r="F381" t="s">
         <v>737</v>
-      </c>
-      <c r="F381" t="s">
-        <v>738</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14008,10 +14005,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>738</v>
+      </c>
+      <c r="F382" t="s">
         <v>739</v>
-      </c>
-      <c r="F382" t="s">
-        <v>740</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14037,10 +14034,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>740</v>
+      </c>
+      <c r="F383" t="s">
         <v>741</v>
-      </c>
-      <c r="F383" t="s">
-        <v>742</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14066,10 +14063,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>742</v>
+      </c>
+      <c r="F384" t="s">
         <v>743</v>
-      </c>
-      <c r="F384" t="s">
-        <v>744</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14095,10 +14092,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>744</v>
+      </c>
+      <c r="F385" t="s">
         <v>745</v>
-      </c>
-      <c r="F385" t="s">
-        <v>746</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14124,10 +14121,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>746</v>
+      </c>
+      <c r="F386" t="s">
         <v>747</v>
-      </c>
-      <c r="F386" t="s">
-        <v>748</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14153,10 +14150,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>748</v>
+      </c>
+      <c r="F387" t="s">
         <v>749</v>
-      </c>
-      <c r="F387" t="s">
-        <v>750</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14182,10 +14179,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>750</v>
+      </c>
+      <c r="F388" t="s">
         <v>751</v>
-      </c>
-      <c r="F388" t="s">
-        <v>752</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14211,10 +14208,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>752</v>
+      </c>
+      <c r="F389" t="s">
         <v>753</v>
-      </c>
-      <c r="F389" t="s">
-        <v>754</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14240,10 +14237,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>754</v>
+      </c>
+      <c r="F390" t="s">
         <v>755</v>
-      </c>
-      <c r="F390" t="s">
-        <v>756</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14269,10 +14266,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>756</v>
+      </c>
+      <c r="F391" t="s">
         <v>757</v>
-      </c>
-      <c r="F391" t="s">
-        <v>758</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14298,10 +14295,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>758</v>
+      </c>
+      <c r="F392" t="s">
         <v>759</v>
-      </c>
-      <c r="F392" t="s">
-        <v>760</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14327,10 +14324,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>760</v>
+      </c>
+      <c r="F393" t="s">
         <v>761</v>
-      </c>
-      <c r="F393" t="s">
-        <v>762</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14356,10 +14353,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>762</v>
+      </c>
+      <c r="F394" t="s">
         <v>763</v>
-      </c>
-      <c r="F394" t="s">
-        <v>764</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14385,10 +14382,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>764</v>
+      </c>
+      <c r="F395" t="s">
         <v>765</v>
-      </c>
-      <c r="F395" t="s">
-        <v>766</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14414,10 +14411,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>766</v>
+      </c>
+      <c r="F396" t="s">
         <v>767</v>
-      </c>
-      <c r="F396" t="s">
-        <v>768</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14443,10 +14440,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>768</v>
+      </c>
+      <c r="F397" t="s">
         <v>769</v>
-      </c>
-      <c r="F397" t="s">
-        <v>770</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14472,10 +14469,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>770</v>
+      </c>
+      <c r="F398" t="s">
         <v>771</v>
-      </c>
-      <c r="F398" t="s">
-        <v>772</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14501,10 +14498,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>772</v>
+      </c>
+      <c r="F399" t="s">
         <v>773</v>
-      </c>
-      <c r="F399" t="s">
-        <v>774</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14530,10 +14527,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>774</v>
+      </c>
+      <c r="F400" t="s">
         <v>775</v>
-      </c>
-      <c r="F400" t="s">
-        <v>776</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14559,10 +14556,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>776</v>
+      </c>
+      <c r="F401" t="s">
         <v>777</v>
-      </c>
-      <c r="F401" t="s">
-        <v>778</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14588,10 +14585,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>778</v>
+      </c>
+      <c r="F402" t="s">
         <v>779</v>
-      </c>
-      <c r="F402" t="s">
-        <v>780</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14617,10 +14614,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>780</v>
+      </c>
+      <c r="F403" t="s">
         <v>781</v>
-      </c>
-      <c r="F403" t="s">
-        <v>782</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14646,10 +14643,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>782</v>
+      </c>
+      <c r="F404" t="s">
         <v>783</v>
-      </c>
-      <c r="F404" t="s">
-        <v>784</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14675,10 +14672,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>784</v>
+      </c>
+      <c r="F405" t="s">
         <v>785</v>
-      </c>
-      <c r="F405" t="s">
-        <v>786</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14704,10 +14701,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>786</v>
+      </c>
+      <c r="F406" t="s">
         <v>787</v>
-      </c>
-      <c r="F406" t="s">
-        <v>788</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14733,10 +14730,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>788</v>
+      </c>
+      <c r="F407" t="s">
         <v>789</v>
-      </c>
-      <c r="F407" t="s">
-        <v>790</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14762,10 +14759,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
+        <v>646</v>
+      </c>
+      <c r="F408" t="s">
         <v>647</v>
-      </c>
-      <c r="F408" t="s">
-        <v>648</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14791,10 +14788,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>790</v>
+      </c>
+      <c r="F409" t="s">
         <v>791</v>
-      </c>
-      <c r="F409" t="s">
-        <v>792</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14820,10 +14817,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>792</v>
+      </c>
+      <c r="F410" t="s">
         <v>793</v>
-      </c>
-      <c r="F410" t="s">
-        <v>794</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14849,10 +14846,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>632</v>
+      </c>
+      <c r="F411" t="s">
         <v>633</v>
-      </c>
-      <c r="F411" t="s">
-        <v>634</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -14878,10 +14875,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>794</v>
+      </c>
+      <c r="F412" t="s">
         <v>795</v>
-      </c>
-      <c r="F412" t="s">
-        <v>796</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -14907,10 +14904,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>634</v>
+      </c>
+      <c r="F413" t="s">
         <v>635</v>
-      </c>
-      <c r="F413" t="s">
-        <v>636</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -14936,10 +14933,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>796</v>
+      </c>
+      <c r="F414" t="s">
         <v>797</v>
-      </c>
-      <c r="F414" t="s">
-        <v>798</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -14965,10 +14962,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
+        <v>798</v>
+      </c>
+      <c r="F415" t="s">
         <v>799</v>
-      </c>
-      <c r="F415" t="s">
-        <v>800</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -14994,10 +14991,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>800</v>
+      </c>
+      <c r="F416" t="s">
         <v>801</v>
-      </c>
-      <c r="F416" t="s">
-        <v>802</v>
       </c>
       <c r="G416" t="n">
         <v>4</v>
@@ -15023,10 +15020,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>802</v>
+      </c>
+      <c r="F417" t="s">
         <v>803</v>
-      </c>
-      <c r="F417" t="s">
-        <v>804</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15052,10 +15049,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
+        <v>804</v>
+      </c>
+      <c r="F418" t="s">
         <v>805</v>
-      </c>
-      <c r="F418" t="s">
-        <v>806</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15081,10 +15078,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
+        <v>806</v>
+      </c>
+      <c r="F419" t="s">
         <v>807</v>
-      </c>
-      <c r="F419" t="s">
-        <v>808</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15110,10 +15107,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
+        <v>808</v>
+      </c>
+      <c r="F420" t="s">
         <v>809</v>
-      </c>
-      <c r="F420" t="s">
-        <v>810</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15139,10 +15136,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>810</v>
+      </c>
+      <c r="F421" t="s">
         <v>811</v>
-      </c>
-      <c r="F421" t="s">
-        <v>812</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15168,10 +15165,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
+        <v>812</v>
+      </c>
+      <c r="F422" t="s">
         <v>813</v>
-      </c>
-      <c r="F422" t="s">
-        <v>814</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15197,10 +15194,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>814</v>
+      </c>
+      <c r="F423" t="s">
         <v>815</v>
-      </c>
-      <c r="F423" t="s">
-        <v>816</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15226,10 +15223,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>622</v>
+      </c>
+      <c r="F424" t="s">
         <v>623</v>
-      </c>
-      <c r="F424" t="s">
-        <v>624</v>
       </c>
       <c r="G424" t="n">
         <v>3</v>
@@ -15255,10 +15252,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
+        <v>816</v>
+      </c>
+      <c r="F425" t="s">
         <v>817</v>
-      </c>
-      <c r="F425" t="s">
-        <v>818</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15284,10 +15281,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
+        <v>818</v>
+      </c>
+      <c r="F426" t="s">
         <v>819</v>
-      </c>
-      <c r="F426" t="s">
-        <v>820</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15313,10 +15310,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
+        <v>820</v>
+      </c>
+      <c r="F427" t="s">
         <v>821</v>
-      </c>
-      <c r="F427" t="s">
-        <v>822</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15342,10 +15339,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>822</v>
+      </c>
+      <c r="F428" t="s">
         <v>823</v>
-      </c>
-      <c r="F428" t="s">
-        <v>824</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15371,10 +15368,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>824</v>
+      </c>
+      <c r="F429" t="s">
         <v>825</v>
-      </c>
-      <c r="F429" t="s">
-        <v>826</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15400,10 +15397,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>826</v>
+      </c>
+      <c r="F430" t="s">
         <v>827</v>
-      </c>
-      <c r="F430" t="s">
-        <v>828</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15429,10 +15426,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
+        <v>828</v>
+      </c>
+      <c r="F431" t="s">
         <v>829</v>
-      </c>
-      <c r="F431" t="s">
-        <v>830</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15458,10 +15455,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
+        <v>830</v>
+      </c>
+      <c r="F432" t="s">
         <v>831</v>
-      </c>
-      <c r="F432" t="s">
-        <v>832</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15487,10 +15484,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>832</v>
+      </c>
+      <c r="F433" t="s">
         <v>833</v>
-      </c>
-      <c r="F433" t="s">
-        <v>834</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -15516,10 +15513,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>834</v>
+      </c>
+      <c r="F434" t="s">
         <v>835</v>
-      </c>
-      <c r="F434" t="s">
-        <v>836</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15545,10 +15542,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>836</v>
+      </c>
+      <c r="F435" t="s">
         <v>837</v>
-      </c>
-      <c r="F435" t="s">
-        <v>838</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15574,10 +15571,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>838</v>
+      </c>
+      <c r="F436" t="s">
         <v>839</v>
-      </c>
-      <c r="F436" t="s">
-        <v>840</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15603,10 +15600,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
+        <v>840</v>
+      </c>
+      <c r="F437" t="s">
         <v>841</v>
-      </c>
-      <c r="F437" t="s">
-        <v>842</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15632,10 +15629,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
+        <v>842</v>
+      </c>
+      <c r="F438" t="s">
         <v>843</v>
-      </c>
-      <c r="F438" t="s">
-        <v>844</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15661,10 +15658,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
+        <v>844</v>
+      </c>
+      <c r="F439" t="s">
         <v>845</v>
-      </c>
-      <c r="F439" t="s">
-        <v>846</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15690,10 +15687,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
+        <v>846</v>
+      </c>
+      <c r="F440" t="s">
         <v>847</v>
-      </c>
-      <c r="F440" t="s">
-        <v>848</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15719,10 +15716,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>848</v>
+      </c>
+      <c r="F441" t="s">
         <v>849</v>
-      </c>
-      <c r="F441" t="s">
-        <v>850</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15748,10 +15745,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>850</v>
+      </c>
+      <c r="F442" t="s">
         <v>851</v>
-      </c>
-      <c r="F442" t="s">
-        <v>852</v>
       </c>
       <c r="G442" t="n">
         <v>3</v>
@@ -15777,10 +15774,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>852</v>
+      </c>
+      <c r="F443" t="s">
         <v>853</v>
-      </c>
-      <c r="F443" t="s">
-        <v>854</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15806,10 +15803,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>854</v>
+      </c>
+      <c r="F444" t="s">
         <v>855</v>
-      </c>
-      <c r="F444" t="s">
-        <v>856</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15835,10 +15832,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>856</v>
+      </c>
+      <c r="F445" t="s">
         <v>857</v>
-      </c>
-      <c r="F445" t="s">
-        <v>858</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
